--- a/Vue-pre/资料/项目进度统计.xlsx
+++ b/Vue-pre/资料/项目进度统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="6405"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="项目1组" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>实战项目信息统计表</t>
   </si>
@@ -73,6 +73,15 @@
     <t>否</t>
   </si>
   <si>
+    <t>新增了新人专享礼</t>
+  </si>
+  <si>
+    <t>样式写太慢</t>
+  </si>
+  <si>
+    <t>9月/27</t>
+  </si>
+  <si>
     <t>XXX</t>
   </si>
 </sst>
@@ -102,24 +111,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,7 +133,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -156,9 +157,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,17 +204,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,33 +233,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,7 +249,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,31 +306,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,67 +396,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,67 +462,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,11 +505,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,6 +517,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,54 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -591,6 +580,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -599,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,133 +620,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,7 +1138,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E6"/>
+      <selection activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1239,13 +1248,27 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" ht="30.95" customHeight="1" spans="1:7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="A7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:7">
       <c r="A8" s="9"/>
@@ -2648,7 +2671,7 @@
     </row>
     <row r="3" ht="30.95" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>

--- a/Vue-pre/资料/项目进度统计.xlsx
+++ b/Vue-pre/资料/项目进度统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="20130" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="项目1组" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
   <si>
     <t>实战项目信息统计表</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>9月/27</t>
+  </si>
+  <si>
+    <t>完善了首页海报模块 增加了第二页数据</t>
+  </si>
+  <si>
+    <t>页面跳转</t>
   </si>
   <si>
     <t>XXX</t>
@@ -1137,8 +1143,8 @@
   <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1280,13 +1286,23 @@
       <c r="G8" s="9"/>
     </row>
     <row r="9" ht="30.95" customHeight="1" spans="1:7">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="11">
+        <v>43736</v>
+      </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:7">
       <c r="A10" s="9"/>
@@ -2671,7 +2687,7 @@
     </row>
     <row r="3" ht="30.95" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>

--- a/Vue-pre/资料/项目进度统计.xlsx
+++ b/Vue-pre/资料/项目进度统计.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
   <si>
     <t>实战项目信息统计表</t>
   </si>
@@ -88,6 +88,15 @@
     <t>页面跳转</t>
   </si>
   <si>
+    <t>增加了第三个页面</t>
+  </si>
+  <si>
+    <t>导航跳转</t>
+  </si>
+  <si>
+    <t>9月29</t>
+  </si>
+  <si>
     <t>XXX</t>
   </si>
 </sst>
@@ -96,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -117,8 +126,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,7 +208,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,38 +231,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,73 +263,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -306,19 +315,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,157 +459,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,11 +518,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,32 +557,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,19 +595,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,10 +623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,133 +635,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1144,7 +1153,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G10"/>
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1314,13 +1323,27 @@
       <c r="G10" s="9"/>
     </row>
     <row r="11" ht="30.95" customHeight="1" spans="1:7">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="A11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:7">
       <c r="A12" s="9"/>
@@ -2687,7 +2710,7 @@
     </row>
     <row r="3" ht="30.95" customHeight="1" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
